--- a/data/data for website.xlsx
+++ b/data/data for website.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\imagine powertree\power tree new website\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED24AF49-2EC5-4A5A-8A38-855DFBDF0A80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBD6F456-2C5C-4D79-A12B-E92667EE2D80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -290,7 +290,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -337,6 +337,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF2D1E15"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -421,7 +428,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -486,6 +493,10 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -505,377 +516,6 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1200150</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>1085850</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="team-image5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E6A6697-25B6-439F-816F-F95FF8F5DADA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2832100" y="2673350"/>
-          <a:ext cx="1085850" cy="1085850"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1219200</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>1200150</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="team-image2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE3D1653-98C7-332E-6425-12AB6B4900D1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2736850" y="196850"/>
-          <a:ext cx="1200150" cy="1200150"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1225550</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>1212850</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="team-image3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C2F7796-A3A4-8A6F-4AB9-0A82C9FAAB97}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2743200" y="1460500"/>
-          <a:ext cx="1200150" cy="1200150"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>88900</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1174750</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>1085850</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="team-image4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7381C78B-2A6D-F328-6BD1-3C1B1D9DF912}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2806700" y="2749550"/>
-          <a:ext cx="1085850" cy="1085850"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>107950</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1181100</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>1073150</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="team-image7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{564087F8-4881-FDDD-F08E-840DAC63D265}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2825750" y="5010150"/>
-          <a:ext cx="1073150" cy="1073150"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>1263650</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="team-image8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD307812-D57D-BE20-561C-08B693C711E5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2717800" y="6172200"/>
-          <a:ext cx="1263650" cy="1263650"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1450,7 +1090,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1493,7 +1135,7 @@
       <c r="B2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="1"/>
+      <c r="C2" s="28"/>
       <c r="D2" s="9"/>
       <c r="E2" s="1"/>
       <c r="F2" s="10" t="s">
@@ -1508,7 +1150,7 @@
       <c r="B3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="1"/>
+      <c r="C3" s="28"/>
       <c r="D3" s="9"/>
       <c r="E3" s="1"/>
       <c r="F3" s="10" t="s">
@@ -1523,7 +1165,7 @@
       <c r="B4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="1"/>
+      <c r="C4" s="28"/>
       <c r="D4" s="9"/>
       <c r="E4" s="1"/>
       <c r="F4" s="10" t="s">
@@ -1538,7 +1180,7 @@
       <c r="B5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="1"/>
+      <c r="C5" s="28"/>
       <c r="D5" s="9"/>
       <c r="E5" s="1"/>
       <c r="F5" s="10" t="s">
@@ -1553,7 +1195,7 @@
       <c r="B6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="1"/>
+      <c r="C6" s="28"/>
       <c r="D6" s="9"/>
       <c r="E6" s="1"/>
       <c r="F6" s="9"/>
@@ -1566,7 +1208,7 @@
       <c r="B7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="1"/>
+      <c r="C7" s="28"/>
       <c r="D7" s="9"/>
       <c r="E7" s="1"/>
       <c r="F7" s="9"/>
@@ -1581,7 +1223,6 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId5"/>
-  <drawing r:id="rId6"/>
 </worksheet>
 </file>
 
@@ -1666,10 +1307,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7DB0850-56E3-4A06-BB15-B8992D05A4FE}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B7" sqref="A7:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1711,6 +1352,10 @@
         <v>32</v>
       </c>
     </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="21"/>
+      <c r="B7" s="21"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1719,10 +1364,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32982F7A-97A2-41A3-AA8E-EF41393BE6F7}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:E6"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E7" sqref="A7:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1809,14 +1454,21 @@
       <c r="A6" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="20"/>
+      <c r="B6" s="27"/>
       <c r="C6" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D6" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="E6" s="21"/>
+      <c r="E6" s="29"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="21"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1825,10 +1477,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{088D6D00-77BF-4D5E-AFC1-465C011F5E41}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="F5" sqref="A5:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1889,13 +1541,21 @@
       <c r="A4" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="20"/>
+      <c r="B4" s="27"/>
       <c r="C4" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="21"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1951,7 +1611,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
